--- a/medicine/Mort/My_Girl_(film)/My_Girl_(film).xlsx
+++ b/medicine/Mort/My_Girl_(film)/My_Girl_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">My Girl, également appelé Copain, copine ou L'Été de mes onze ans au Québec, est un film américain réalisé par Howard Zieff et sorti en 1991.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Été 1972 à Madison en Pennsylvanie. Vada Sultenfuss est une jeune fille de 11 ans, audacieuse et déterminée, ayant perdu sa mère décédée en couches. Elle vit depuis avec son père, Harry, propriétaire d'une entreprise de pompes funèbres installée au sous-sol de leur maison. Cet arrangement effraie la jeune fille, qui souffre d'hypocondrie et entretient un sentiment de culpabilité à l'égard de la mort de sa mère. Vada est taquinée par les autres filles parce que son meilleur ami, Thomas J. Sennett (Macaulay Culkin), est impopulaire et surtout un garçon. Leurs aventures d'été, du premier baiser au dernier adieu, vont introduire Vada au monde de l'adolescence. Ses liens avec lui vont s'intensifier tout au long du film. L'arrivée de Shelly comme assistante de son père va peu à peu faire découvrir à Vada tout ce qui la lie à devenir une femme. 
 Elle continuera à jouer avec Thomas, qui tombe amoureux d'elle. Un jour, en allant au bord d'un lac, les deux enfants lancent des pierres sur un essaim d'abeilles et Vada perd une bague qui change de couleur selon l'humeur, à laquelle elle tenait tant. Thomas revient sur les lieux quelque temps après pour retrouver la bague, mais il est attaqué par des abeilles. Il est retrouvé mort par un garde-chasse. Thomas est amené aux pompes funèbres du père de la jeune fille. Le jour de l'enterrement, elle laisse exploser son émotion.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : My Girl ou Copain, copine
 Titre original : My Girl
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dan Aykroyd (VF : Richard Darbois ; VQ : Mario Desmarais) : Harry Sultenfuss
 Jamie Lee Curtis (VF : Micky Sébastian ; VQ : Claudie Verdant) : Shelly DeVoto
@@ -634,13 +652,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scénariste Laurice Elehwany s'inspire en partie de son enfance. Elle a notamment grandi en Pennsylvanie et avait une amie qui habitait une funeral home[1]. Le script s'intitule initialement Born Jaundiced, titre que les producteurs veulent absolument changer. Pour en trouver un nouveau, ils offrent une récompense de 500 $ aux employés d'Imagine Entertainment. Plusieurs propositions tourneront autour du thèmes des funérailles et des pompes funèbres (Mourning Glory, In Lieu of Flowers, Dearly Departed, ...). Quelqu'un suggère Vada!, d'après le nom du personnage incarné par Anna Chlumsky, ou encore I Am Woman. C'est le producteur qui Brian Grazer qui suggère My Girl d'après la chanson du même nom interprétée par le groupe The Temptations[1].
-Choix des interprètes
-Elijah Wood sera un temps envisagé pour incarner de Thomas, tout comme Charlie Korsmo. Le rôle revient finalement à Macaulay Culkin, qui sortait de l'immense succès de Maman, j'ai raté l'avion !. Le rôle du père est tout d'abord proposé à Bill Murray et Steve Martin, mais ils sont trop occupés. Alors que Chevy Chase est envisagé, c'est finalement Dan Aykroyd qui est choisi[1].
-Tournage
-Le tournage a lieu de janvier à mars 1991. Il se déroule principalement en Floride : Bartow, Plant City, Sanford, Orlando, Ocoee et Clermont. Quelques plans sont par ailleurs tournés à West Hollywood en Californie[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scénariste Laurice Elehwany s'inspire en partie de son enfance. Elle a notamment grandi en Pennsylvanie et avait une amie qui habitait une funeral home. Le script s'intitule initialement Born Jaundiced, titre que les producteurs veulent absolument changer. Pour en trouver un nouveau, ils offrent une récompense de 500 $ aux employés d'Imagine Entertainment. Plusieurs propositions tourneront autour du thèmes des funérailles et des pompes funèbres (Mourning Glory, In Lieu of Flowers, Dearly Departed, ...). Quelqu'un suggère Vada!, d'après le nom du personnage incarné par Anna Chlumsky, ou encore I Am Woman. C'est le producteur qui Brian Grazer qui suggère My Girl d'après la chanson du même nom interprétée par le groupe The Temptations.
 </t>
         </is>
       </c>
@@ -666,10 +682,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Choix des interprètes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elijah Wood sera un temps envisagé pour incarner de Thomas, tout comme Charlie Korsmo. Le rôle revient finalement à Macaulay Culkin, qui sortait de l'immense succès de Maman, j'ai raté l'avion !. Le rôle du père est tout d'abord proposé à Bill Murray et Steve Martin, mais ils sont trop occupés. Alors que Chevy Chase est envisagé, c'est finalement Dan Aykroyd qui est choisi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu de janvier à mars 1991. Il se déroule principalement en Floride : Bartow, Plant City, Sanford, Orlando, Ocoee et Clermont. Quelques plans sont par ailleurs tournés à West Hollywood en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La musique du film est composée par James Newton Howard. L'album de la bande originale contient principalement les chansons des années 60-70 présentes dans le film, notamment My Girl de The Temptations qui a donné son titre au film. On retrouve aussi sur l'album la version de Manfred Mann de Do Wah Diddy Diddy que Vada chante plusieurs fois dans le film.
 Liste des titres
@@ -688,95 +780,170 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>My_Girl_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>My_Girl_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Source : Internet Movie Database[3]
-Récompenses
-MTV Movie &amp; TV Awards 1992 : meilleure scène de baiser pour Anna Chlumsky et Macaulay Culkin)
-Young Artist Awards 1993 : meilleure révélation pour Anna Chlumsky
-Nominations
-MTV Movie &amp; TV Awards 1992 : meilleure révélation pour Anna Chlumsky et meilleur duo pour Anna Chlumsky et Macaulay Culkin)
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source : Internet Movie Database
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MTV Movie &amp; TV Awards 1992 : meilleure scène de baiser pour Anna Chlumsky et Macaulay Culkin)
+Young Artist Awards 1993 : meilleure révélation pour Anna Chlumsky</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MTV Movie &amp; TV Awards 1992 : meilleure révélation pour Anna Chlumsky et meilleur duo pour Anna Chlumsky et Macaulay Culkin)
 Chicago Film Critics Association Awards 1992 : actrice la plus prometteuse pour Anna Chlumsky
 Kids' Choice Awards 1993 : meilleur film
 Young Artist Awards 1993 : meilleur film familiale</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>My_Girl_(film)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Girl_(film)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Suite</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film a eu une suite, My Girl 2 (ou Copain, copine 2), toujours réalisé par le même Howard Zieff et avec les mêmes acteurs. L'intrigue se situe deux ans après.
 </t>
